--- a/src/data/lista-de-booking.xlsx
+++ b/src/data/lista-de-booking.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="113">
   <si>
     <t>Nombre</t>
   </si>
@@ -37,56 +37,365 @@
     <t>CheckOut</t>
   </si>
   <si>
-    <t>Malasaña Beautiful Design Apartment 2bed 2bath</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/malasana-beautiful-design-apartment-2bed-2bath.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=51&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=40fe6012aed600bf&amp;srepoch=1645364389&amp;all_sr_blocks=736483401_327850761_2_0_0&amp;highlighted_blocks=736483401_327850761_2_0_0&amp;matching_block_id=736483401_327850761_2_0_0&amp;sr_pri_blocks=736483401_327850761_2_0_0__13800&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t>€ 138</t>
+    <t>Piso Bonito</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/piso-bonito-madrid.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=126&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=791125001_338902575_1_0_0&amp;highlighted_blocks=791125001_338902575_1_0_0&amp;matching_block_id=791125001_338902575_1_0_0&amp;sr_pri_blocks=791125001_338902575_1_0_0__11970&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento de 3 dormitorios
+Apartamento entero • 3 dormitorios • 1 sala de estar • 1 baño • 80m²
+4 camas (3 dobles, 1 sofá cama)</t>
+  </si>
+  <si>
+    <t>21/2/2022</t>
+  </si>
+  <si>
+    <t>22/2/2022</t>
+  </si>
+  <si>
+    <t>Apartamento,Chamberí,Quevedo, 5</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/apartamento-chamberi-quevedo-e.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=127&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=761679901_333347382_4_0_0&amp;highlighted_blocks=761679901_333347382_4_0_0&amp;matching_block_id=761679901_333347382_4_0_0&amp;sr_pri_blocks=761679901_333347382_4_0_0__10500&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  105</t>
+  </si>
+  <si>
+    <t>7,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento de 1 dormitorio
+Apartamento entero • 1 dormitorio • 1 sala de estar • 1 baño • 34m²
+2 camas (1 doble, 1 sofá cama)</t>
+  </si>
+  <si>
+    <t>Horoko Apartments by gaiarooms</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/miosotis13-madrid.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=128&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=404743703_344219680_4_0_0&amp;highlighted_blocks=404743703_344219680_4_0_0&amp;matching_block_id=404743703_344219680_4_0_0&amp;sr_pri_blocks=404743703_344219680_4_0_0__10500&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t>8,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento Estudio
+Apartamento entero • 1 dormitorio • 1 sala de estar • 1 baño • 32m²
+2 camas (1 doble, 1 sofá cama)
+Cancelación GRATIS • Sin pago por adelantado
+Puedes cancelar más tarde. Aprovecha y consigue un buen precio hoy.
+Solo queda 1 a este precio en nuestra web</t>
+  </si>
+  <si>
+    <t>Aluche Aparment C</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/aluche-aparment-c.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=129&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=669676001_343471556_2_0_0&amp;highlighted_blocks=669676001_343471556_2_0_0&amp;matching_block_id=669676001_343471556_2_0_0&amp;sr_pri_blocks=669676001_343471556_2_0_0__10450&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  104</t>
+  </si>
+  <si>
+    <t>7,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento de 1 dormitorio
+Apartamento entero • 1 dormitorio • 1 sala de estar • 1 baño • 50m²
+2 camas (1 doble, 1 sofá cama)</t>
+  </si>
+  <si>
+    <t>Centro / Ferrocarril 3</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/centro-47-ferrocarril-3.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=130&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=654489601_343471591_3_0_0&amp;highlighted_blocks=654489601_343471591_3_0_0&amp;matching_block_id=654489601_343471591_3_0_0&amp;sr_pri_blocks=654489601_343471591_3_0_0__10450&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t>5,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento de 1 dormitorio
+Apartamento entero • 1 dormitorio • 1 sala de estar • 1 baño • 35m²
+2 camas (1 doble, 1 sofá cama)</t>
+  </si>
+  <si>
+    <t>Cosy Apartment close to Atocha station Madrid</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/cosy-apartment-close-to-atocha-station-madrid.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=131&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=811514502_343404377_6_0_0&amp;highlighted_blocks=811514502_343404377_6_0_0&amp;matching_block_id=811514502_343404377_6_0_0&amp;sr_pri_blocks=811514502_343404377_6_0_0__12000&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento
+Apartamento entero • 3 dormitorios • 1 sala de estar • 2 baños • 90m²
+3 camas dobles</t>
+  </si>
+  <si>
+    <t>HOMEABOUT ATOCHA APARTMENT (1BR 1BT)</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/homeabout-atocha-apartment-1br-1bt-madrid.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=132&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=811260301_343362099_1_0_0&amp;highlighted_blocks=811260301_343362099_1_0_0&amp;matching_block_id=811260301_343362099_1_0_0&amp;sr_pri_blocks=811260301_343362099_1_0_0__10784&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  108</t>
+  </si>
+  <si>
+    <t>Centroapartament Las Letras</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/centroapartament-echegaray.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=133&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=159341901_91958362_2_0_0&amp;highlighted_blocks=159341901_91958362_2_0_0&amp;matching_block_id=159341901_91958362_2_0_0&amp;sr_pri_blocks=159341901_91958362_2_0_0__12050&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  121</t>
   </si>
   <si>
     <t>9,2</t>
   </si>
   <si>
+    <t>Jaime el Conquistador Apartment</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/jaime-el-conquistador-apartment.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=134&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=194484101_343471573_4_0_0&amp;highlighted_blocks=194484101_343471573_4_0_0&amp;matching_block_id=194484101_343471573_4_0_0&amp;sr_pri_blocks=194484101_343471573_4_0_0__10670&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  107</t>
+  </si>
+  <si>
+    <t>6,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento
+Apartamento entero • 2 dormitorios • 1 sala de estar • 60m²
+3 camas (2 dobles, 1 sofá cama)
+Solo queda 1 a este precio en nuestra web</t>
+  </si>
+  <si>
+    <t>My City Home Estudio Noviciado IV</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/my-city-home-estudio-noviciado-iv.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=10&amp;hapos=135&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=822086701_344962055_2_0_0&amp;highlighted_blocks=822086701_344962055_2_0_0&amp;matching_block_id=822086701_344962055_2_0_0&amp;sr_pri_blocks=822086701_344962055_2_0_0__11693&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  123 -  117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento de 1 dormitorio
+Apartamento entero • 1 dormitorio • 1 baño • 42m²
+1 cama doble</t>
+  </si>
+  <si>
+    <t>Centro Madrid Rio - Monederos B</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/madrid-rio-monederos-b.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=11&amp;hapos=136&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=451980701_343471583_4_0_0&amp;highlighted_blocks=451980701_343471583_4_0_0&amp;matching_block_id=451980701_343471583_4_0_0&amp;sr_pri_blocks=451980701_343471583_4_0_0__10120&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  101</t>
+  </si>
+  <si>
+    <t>6,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento de 1 dormitorio
+Apartamento entero • 1 dormitorio • 1 sala de estar • 1 baño • 35m²
+2 camas (1 doble, 1 sofá cama)
+Solo queda 1 a este precio en nuestra web</t>
+  </si>
+  <si>
+    <t>PYR Select Puerta de Toledo</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/pyr-select-puerta-de-toledo.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=12&amp;hapos=137&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=535999201_238876858_2_0_0&amp;highlighted_blocks=535999201_238876858_2_0_0&amp;matching_block_id=535999201_238876858_2_0_0&amp;sr_pri_blocks=535999201_238876858_2_0_0__14775&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  148</t>
+  </si>
+  <si>
+    <t>7,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento de 1 dormitorio
+Apartamento entero • 1 dormitorio • 1 sala de estar • 1 baño • 65m²
+2 camas (1 doble, 1 sofá cama)
+Solo queda 1 a este precio en nuestra web</t>
+  </si>
+  <si>
+    <t>MONCLOA-UNI. COMPLUTENSE APARTAMENTOS</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/moncloa-uni-complutense-apartamentos.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=13&amp;hapos=138&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=811254401_343359582_4_0_0&amp;highlighted_blocks=811254401_343359582_4_0_0&amp;matching_block_id=811254401_343359582_4_0_0&amp;sr_pri_blocks=811254401_343359582_4_0_0__10080&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t>7,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento de 1 dormitorio
+Apartamento entero • 1 dormitorio • 1 sala de estar • 1 baño • 25m²
+2 camas (1 doble, 1 sofá cama)
+Solo queda 1 a este precio en nuestra web</t>
+  </si>
+  <si>
+    <t>La Gata Madrid</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/la-gata-madrid.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=14&amp;hapos=139&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=240719601_236047736_4_0_0&amp;highlighted_blocks=240719601_236047736_4_0_0&amp;matching_block_id=240719601_236047736_4_0_0&amp;sr_pri_blocks=240719601_236047736_4_0_0__13700&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  137</t>
+  </si>
+  <si>
+    <t>8,2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Apartamento de 2 dormitorios
-Apartamento entero • 2 dormitorios • 1 sala de estar • 2 baños • 74m²
-3 camas (2 dobles, 1 sofá cama)</t>
-  </si>
-  <si>
-    <t>21/2/2022</t>
-  </si>
-  <si>
-    <t>22/2/2022</t>
-  </si>
-  <si>
-    <t>Apartamento 6 plazas. Centro de Madrid. Ref27</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/apartamento-salitre.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=52&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=40fe6012aed600bf&amp;srepoch=1645364389&amp;all_sr_blocks=160053801_328004789_3_0_0&amp;highlighted_blocks=160053801_328004789_3_0_0&amp;matching_block_id=160053801_328004789_3_0_0&amp;sr_pri_blocks=160053801_328004789_3_0_0__10800&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t>€ 108</t>
-  </si>
-  <si>
-    <t>8,2</t>
+Apartamento entero • 2 dormitorios • 1 sala de estar • 2 baños • 70m²
+4 camas (2 individuales, 1 doble, 1 sofá cama)
+Solo queda 1 a este precio en nuestra web</t>
+  </si>
+  <si>
+    <t>Apartamento Centrico Madrid</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/apartamento-lujo-madrid-centro.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=15&amp;hapos=140&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=694284801_294303422_4_0_0&amp;highlighted_blocks=694284801_294303422_4_0_0&amp;matching_block_id=694284801_294303422_4_0_0&amp;sr_pri_blocks=694284801_294303422_4_0_0__12800&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  128</t>
+  </si>
+  <si>
+    <t>7,4</t>
   </si>
   <si>
     <t xml:space="preserve">Apartamento de 2 dormitorios
-Apartamento entero • 2 dormitorios • 1 sala de estar • 1 baño • 41m²
-3 camas (2 dobles, 1 sofá cama)</t>
-  </si>
-  <si>
-    <t>HOMEABOUT IMPERIAL APARTMENT</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/homeabout-imperial-apartment.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=53&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=40fe6012aed600bf&amp;srepoch=1645364389&amp;all_sr_blocks=789640002_338652479_4_0_0&amp;highlighted_blocks=789640002_338652479_4_0_0&amp;matching_block_id=789640002_338652479_4_0_0&amp;sr_pri_blocks=789640002_338652479_4_0_0__11080&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t>€ 111</t>
-  </si>
-  <si>
-    <t>8,1</t>
+Apartamento entero • 2 dormitorios • 1 sala de estar • 1 baño • 15m²
+3 camas (2 dobles, 1 sofá cama)
+Cancelación gratis
+Puedes cancelar más tarde. Aprovecha y consigue un buen precio hoy.</t>
+  </si>
+  <si>
+    <t>Centro Usera / Mirasierra 1</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/centro-usera-mirasierra-1.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=16&amp;hapos=141&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=788786201_343471564_4_0_0&amp;highlighted_blocks=788786201_343471564_4_0_0&amp;matching_block_id=788786201_343471564_4_0_0&amp;sr_pri_blocks=788786201_343471564_4_0_0__10670&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento de 1 dormitorio
+Apartamento entero • 1 dormitorio • 1 sala de estar • 1 baño • 30m²
+2 camas (1 doble, 1 sofá cama)</t>
+  </si>
+  <si>
+    <t>Apartment PALOMA</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/e-amp-rmad-homes-paloma.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=17&amp;hapos=142&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=590751501_231837071_3_0_0&amp;highlighted_blocks=590751501_231837071_3_0_0&amp;matching_block_id=590751501_231837071_3_0_0&amp;sr_pri_blocks=590751501_231837071_3_0_0__12000&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento de 1 dormitorio
+Apartamento entero • 1 dormitorio • 1 sala de estar • 1 baño • 28m²
+2 camas (1 doble, 1 sofá cama)</t>
+  </si>
+  <si>
+    <t>HOMELY LOFT PLAZA MAYOR</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/homely-loft-plaza-mayor.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=18&amp;hapos=143&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=705975101_295422263_4_0_0&amp;highlighted_blocks=705975101_295422263_4_0_0&amp;matching_block_id=705975101_295422263_4_0_0&amp;sr_pri_blocks=705975101_295422263_4_0_0__14375&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  144</t>
+  </si>
+  <si>
+    <t>9,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento de 1 dormitorio
+Apartamento entero • 1 dormitorio • 1 baño • 30m²
+3 camas (2 individuales, 1 sofá cama)</t>
+  </si>
+  <si>
+    <t>21 Gumers</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/21wifi-a-47-c-parking-gratis.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=19&amp;hapos=144&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=423121001_329624066_1_0_0&amp;highlighted_blocks=423121001_329624066_1_0_0&amp;matching_block_id=423121001_329624066_1_0_0&amp;sr_pri_blocks=423121001_329624066_1_0_0__13450&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  135</t>
+  </si>
+  <si>
+    <t>9,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento - Planta baja
+Apartamento entero • 2 dormitorios • 1 sala de estar • 1 baño • 65m²
+3 camas (1 doble, 1 sofá cama, 1 doble grande)
+Solo queda 1 a este precio en nuestra web</t>
+  </si>
+  <si>
+    <t>Lucero Madrid</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/lucero-madrid.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=20&amp;hapos=145&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=213407901_236047550_4_0_0&amp;highlighted_blocks=213407901_236047550_4_0_0&amp;matching_block_id=213407901_236047550_4_0_0&amp;sr_pri_blocks=213407901_236047550_4_0_0__13700&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t>7,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento de 3 dormitorios
+Apartamento entero • 3 dormitorios • 1 sala de estar • 1 baño • 75m²
+5 camas (3 individuales, 1 doble, 1 sofá cama)
+Solo queda 1 a este precio en nuestra web</t>
+  </si>
+  <si>
+    <t>Stylish Apartments junto a Plaza de España y Gran Vía.</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/stylish-apartments-junto-a-plaza-de-espana-y-gran-via.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=21&amp;hapos=146&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=805962301_342035889_1_0_0&amp;highlighted_blocks=805962301_342035889_1_0_0&amp;matching_block_id=805962301_342035889_1_0_0&amp;sr_pri_blocks=805962301_342035889_1_0_0__10800&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento de 1 dormitorio
+Apartamento entero • 1 dormitorio • 1 baño • 40m²
+1 cama doble</t>
+  </si>
+  <si>
+    <t>MPV-45</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/mpv-45.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=22&amp;hapos=147&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=801247601_341344129_3_0_0&amp;highlighted_blocks=801247601_341344129_3_0_0&amp;matching_block_id=801247601_341344129_3_0_0&amp;sr_pri_blocks=801247601_341344129_3_0_0__10800&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento de 1 dormitorio
+Apartamento entero • 1 dormitorio • 1 sala de estar • 1 baño
+2 camas (1 doble, 1 sofá cama)</t>
+  </si>
+  <si>
+    <t>Destino Deluxe Madrid Paseo de la Castellana</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/madrid-deluxe.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=23&amp;hapos=148&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=299569801_143649415_3_0_0&amp;highlighted_blocks=299569801_143649415_3_0_0&amp;matching_block_id=299569801_143649415_3_0_0&amp;sr_pri_blocks=299569801_143649415_3_0_0__12500&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  125</t>
+  </si>
+  <si>
+    <t>8,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento Deluxe
+Apartamento entero • 1 dormitorio • 1 sala de estar • 44m²
+2 camas (1 sofá cama, 1 doble grande)
+Solo queda 1 a este precio en nuestra web</t>
+  </si>
+  <si>
+    <t>Alterhome Francisco de Goya</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/francisco-de-goya-madrid.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=24&amp;hapos=149&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=514740201_343266826_2_2_0&amp;highlighted_blocks=514740201_343266826_2_2_0&amp;matching_block_id=514740201_343266826_2_2_0&amp;sr_pri_blocks=514740201_343266826_2_2_0__10163&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  102</t>
+  </si>
+  <si>
+    <t>6,2</t>
   </si>
   <si>
     <t xml:space="preserve">Apartamento de 1 dormitorio
@@ -95,355 +404,10 @@
 Solo queda 1 a este precio en nuestra web</t>
   </si>
   <si>
-    <t>Plaza de España Skyline</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/plaza-espana-skyline-by-bemate.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=54&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=40fe6012aed600bf&amp;srepoch=1645364389&amp;all_sr_blocks=285806106_344684390_2_0_0&amp;highlighted_blocks=285806106_344684390_2_0_0&amp;matching_block_id=285806106_344684390_2_0_0&amp;sr_pri_blocks=285806106_344684390_2_0_0__11900&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t>€ 119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habitación Estándar Skyline
-Apartamento entero • 1 dormitorio • 1 sala de estar • 1 baño • 47m²
-2 camas (1 sofá cama, 1 doble grande)
-Solo quedan 5 a este precio en nuestra web</t>
-  </si>
-  <si>
-    <t>Madrid Airport Suites, Affiliated by Meliá</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/tryp-madrid-airport-suites.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=55&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=40fe6012aed600bf&amp;srepoch=1645364389&amp;all_sr_blocks=53696805_260467524_1_41_0&amp;highlighted_blocks=53696805_260467524_1_41_0&amp;matching_block_id=53696805_260467524_1_41_0&amp;sr_pri_blocks=53696805_260467524_1_41_0__10100&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t>€ 101</t>
-  </si>
-  <si>
-    <t>7,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suite Junior Premium
-Suite privada • 1 dormitorio • 1 sala de estar • 1 baño • 32m²
-1 cama doble grande
-Desayuno incluido</t>
-  </si>
-  <si>
-    <t>Gran Via de Madrid Apartments</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/gran-via-de-madrid-apartaments.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=56&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=40fe6012aed600bf&amp;srepoch=1645364389&amp;all_sr_blocks=395129404_122888722_4_0_0&amp;highlighted_blocks=395129404_122888722_4_0_0&amp;matching_block_id=395129404_122888722_4_0_0&amp;sr_pri_blocks=395129404_122888722_4_0_0__11023&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t>€ 110</t>
-  </si>
-  <si>
-    <t>7,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartamento
-Apartamento entero • 2 dormitorios • 1 sala de estar • 1 baño • 70m²
-4 camas (2 dobles, 1 sofá cama, 1 futón)
-Solo quedan 2 a este precio en nuestra web</t>
-  </si>
-  <si>
-    <t>Slow Suites Sol</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/slow-suites-sol.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=57&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=40fe6012aed600bf&amp;srepoch=1645364389&amp;all_sr_blocks=745006204_330309757_4_0_0&amp;highlighted_blocks=745006204_330309757_4_0_0&amp;matching_block_id=745006204_330309757_4_0_0&amp;sr_pri_blocks=745006204_330309757_4_0_0__10100&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t>8,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loft
-Apartamento entero • 3 dormitorios • 1 sala de estar • 2 baños • 92m²
-3 camas dobles
-Solo quedan 2 a este precio en nuestra web</t>
-  </si>
-  <si>
-    <t>Living Plaza Mayor 2</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/living-plaza-mayor-2.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=58&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=40fe6012aed600bf&amp;srepoch=1645364389&amp;all_sr_blocks=276967201_333125804_4_0_0&amp;highlighted_blocks=276967201_333125804_4_0_0&amp;matching_block_id=276967201_333125804_4_0_0&amp;sr_pri_blocks=276967201_333125804_4_0_0__12010&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t>€ 120</t>
-  </si>
-  <si>
-    <t>7,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartamento
-Apartamento entero • 2 dormitorios • 1 sala de estar • 1 baño • 60m²
-3 camas (1 doble, 1 litera, 1 sofá cama)
-Solo queda 1 a este precio en nuestra web</t>
-  </si>
-  <si>
-    <t>En Palacio Casa Entera con Dos Suites</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/en-palacio-casa-entera-con-dos-suites.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=59&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=40fe6012aed600bf&amp;srepoch=1645364389&amp;all_sr_blocks=272757801_146292120_1_0_0&amp;highlighted_blocks=272757801_146292120_1_0_0&amp;matching_block_id=272757801_146292120_1_0_0&amp;sr_pri_blocks=272757801_146292120_1_0_0__14500&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t>€ 145</t>
-  </si>
-  <si>
-    <t>9,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartamento Deluxe
-Apartamento entero • 2 dormitorios • 2 salas de estar • 2 baños • 90m²
-3 camas (1 doble, 1 sofá cama, 1 doble grande)
-Solo queda 1 a este precio en nuestra web</t>
-  </si>
-  <si>
-    <t>Precioso apartamento en el centro de Madrid.</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/precioso-apartamento-en-el-centro-de-madrid-madrid.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=10&amp;hapos=60&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=40fe6012aed600bf&amp;srepoch=1645364389&amp;all_sr_blocks=741232207_329062425_5_0_0&amp;highlighted_blocks=741232207_329062425_5_0_0&amp;matching_block_id=741232207_329062425_5_0_0&amp;sr_pri_blocks=741232207_329062425_5_0_0__15000&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t>€ 150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartamento Superior
-Apartamento entero • 2 dormitorios • 1 sala de estar • 1 baño • 65m²
-4 camas (1 doble, 2 literas, 1 sofá cama)
-Solo queda 1 a este precio en nuestra web</t>
-  </si>
-  <si>
-    <t>Dúplex Unico en Ópera - Palacio</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/duplex-unico-en-opera-palacio.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=11&amp;hapos=61&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=40fe6012aed600bf&amp;srepoch=1645364389&amp;all_sr_blocks=309412201_311706459_2_0_0&amp;highlighted_blocks=309412201_311706459_2_0_0&amp;matching_block_id=309412201_311706459_2_0_0&amp;sr_pri_blocks=309412201_311706459_2_0_0__13000&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t>€ 130</t>
-  </si>
-  <si>
-    <t>9,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartamento
-Apartamento entero • 1 dormitorio • 1 sala de estar • 1 baño • 60m²
-2 camas (1 doble, 1 sofá cama)
-Solo queda 1 a este precio en nuestra web</t>
-  </si>
-  <si>
-    <t>Plaza Mayor Suites &amp; Apartments</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/plaza-mayor-suites-amp-apartments.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=12&amp;hapos=62&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=40fe6012aed600bf&amp;srepoch=1645364389&amp;all_sr_blocks=351939607_262140716_0_0_0&amp;highlighted_blocks=351939607_262140716_0_0_0&amp;matching_block_id=351939607_262140716_0_0_0&amp;sr_pri_blocks=351939607_262140716_0_0_0__11000&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t>9,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartamento con terraza
-Apartamento entero • 1 dormitorio • 1 sala de estar • 1 baño • 27m²
-1 cama doble
-Solo queda 1 a este precio en nuestra web</t>
-  </si>
-  <si>
-    <t>NUEVOS DUPLEX PRINCIPE VERGARA</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/nuevos-duplex-principe-vergara.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=13&amp;hapos=63&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=40fe6012aed600bf&amp;srepoch=1645364389&amp;all_sr_blocks=647147202_344561214_3_0_0&amp;highlighted_blocks=647147202_344561214_3_0_0&amp;matching_block_id=647147202_344561214_3_0_0&amp;sr_pri_blocks=647147202_344561214_3_0_0__14500&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t>7,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartamento Deluxe
-Apartamento entero • 1 dormitorio • 1 sala de estar • 2 baños • 69m²
-3 camas (1 doble, 2 sofás cama)
-Solo queda 1 a este precio en nuestra web</t>
-  </si>
-  <si>
-    <t>Blume Cruz Suites</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/apartamentos-cruz.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=14&amp;hapos=64&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=40fe6012aed600bf&amp;srepoch=1645364389&amp;all_sr_blocks=1225914_116758459_1_0_0&amp;highlighted_blocks=1225914_116758459_1_0_0&amp;matching_block_id=1225914_116758459_1_0_0&amp;sr_pri_blocks=1225914_116758459_1_0_0__11205&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t>€ 112</t>
-  </si>
-  <si>
-    <t>8,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estudio Estándar
-Estudio entero • 1 baño • 28m²
-2 camas individuales
-Solo quedan 4 a este precio en nuestra web</t>
-  </si>
-  <si>
-    <t>Estudio en Calle Sombrerería-Lavapiés</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/estudio-en-calle-sombrereria-lavapies.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=15&amp;hapos=65&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=40fe6012aed600bf&amp;srepoch=1645364389&amp;all_sr_blocks=468729201_145119726_1_0_0&amp;highlighted_blocks=468729201_145119726_1_0_0&amp;matching_block_id=468729201_145119726_1_0_0&amp;sr_pri_blocks=468729201_145119726_1_0_0__10200&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t>€ 110€ 102</t>
-  </si>
-  <si>
-    <t>6,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartamento de 2 dormitorios
-Apartamento entero • 2 dormitorios • 1 baño • 30m²
-2 camas (1 individual, 1 doble)
-Solo queda 1 a este precio en nuestra web</t>
-  </si>
-  <si>
-    <t>FUENCARRAL BARCELO Apartaments TPH</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/fuencarral-barcelo-rooms-tph.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=16&amp;hapos=66&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=40fe6012aed600bf&amp;srepoch=1645364389&amp;all_sr_blocks=778639001_343482229_5_0_0&amp;highlighted_blocks=778639001_343482229_5_0_0&amp;matching_block_id=778639001_343482229_5_0_0&amp;sr_pri_blocks=778639001_343482229_5_0_0__10117&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t>€ 118€ 101</t>
-  </si>
-  <si>
-    <t>4,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartamento con balcón
-Apartamento entero • 2 dormitorios • 1 baño • 35m²
-3 camas dobles grandes
-Solo queda 1 a este precio en nuestra web</t>
-  </si>
-  <si>
-    <t>Castellana 4 torres Apartments</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/castellana-4-torres-apartments.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=17&amp;hapos=67&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=40fe6012aed600bf&amp;srepoch=1645364389&amp;all_sr_blocks=757822501_332773422_2_0_0&amp;highlighted_blocks=757822501_332773422_2_0_0&amp;matching_block_id=757822501_332773422_2_0_0&amp;sr_pri_blocks=757822501_332773422_2_0_0__10100&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t>8,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartamento de 1 dormitorio
-Apartamento entero • 1 dormitorio • 1 sala de estar • 1 baño • 20m²
-2 camas (1 doble, 1 sofá cama)</t>
-  </si>
-  <si>
-    <t>Suites Viena Plaza de España</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/sercotel-suites-viena.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=18&amp;hapos=68&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=40fe6012aed600bf&amp;srepoch=1645364389&amp;all_sr_blocks=9376922_276139769_1_2_0&amp;highlighted_blocks=9376922_276139769_1_2_0&amp;matching_block_id=9376922_276139769_1_2_0&amp;sr_pri_blocks=9376922_276139769_1_2_0__10926&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t>€ 109</t>
-  </si>
-  <si>
-    <t>8,9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suite Junior con terraza
-Suite privada
-2 camas individuales
-Solo queda 1 a este precio en nuestra web</t>
-  </si>
-  <si>
-    <t>LOFTS Puerta del SOL</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/lofts-puertal-del-sol.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=19&amp;hapos=69&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=40fe6012aed600bf&amp;srepoch=1645364389&amp;all_sr_blocks=653936502_339925077_2_0_0&amp;highlighted_blocks=653936502_339925077_2_0_0&amp;matching_block_id=653936502_339925077_2_0_0&amp;sr_pri_blocks=653936502_339925077_2_0_0__10350&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t>€ 103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartamento de 1 dormitorio
-Apartamento entero • 1 dormitorio • 1 sala de estar • 1 baño • 85m²
-2 camas (1 doble, 1 sofá cama)
-Solo queda 1 a este precio en nuestra web</t>
-  </si>
-  <si>
-    <t>Slow Suites Luchana</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/luchana-suites.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=20&amp;hapos=70&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=40fe6012aed600bf&amp;srepoch=1645364389&amp;all_sr_blocks=151339604_87880012_4_0_0&amp;highlighted_blocks=151339604_87880012_4_0_0&amp;matching_block_id=151339604_87880012_4_0_0&amp;sr_pri_blocks=151339604_87880012_4_0_0__10500&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t>€ 105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartamento de 2 dormitorios - Interior
-Apartamento entero • 2 dormitorios • 1 sala de estar • 1 baño • 60m²
-4 camas individuales
-Solo quedan 2 a este precio en nuestra web</t>
-  </si>
-  <si>
-    <t>Charming Santa Isabel</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/charming-santa-isabel.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=21&amp;hapos=71&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=40fe6012aed600bf&amp;srepoch=1645364389&amp;all_sr_blocks=267406901_105788583_2_0_0&amp;highlighted_blocks=267406901_105788583_2_0_0&amp;matching_block_id=267406901_105788583_2_0_0&amp;sr_pri_blocks=267406901_105788583_2_0_0__10400&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t>€ 104</t>
-  </si>
-  <si>
-    <t>Pierre &amp; Vacances Apartamentos Edificio Eurobuilding 2</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/apartamentos-eurobuilding-2.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=22&amp;hapos=72&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=40fe6012aed600bf&amp;srepoch=1645364389&amp;all_sr_blocks=9416217_88195575_4_0_0&amp;highlighted_blocks=9416217_88195575_4_0_0&amp;matching_block_id=9416217_88195575_4_0_0&amp;sr_pri_blocks=9416217_88195575_4_0_0__11550&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t>€ 116</t>
-  </si>
-  <si>
-    <t>8,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartamento de 1 dormitorio
-Apartamento entero • 1 dormitorio • 1 sala de estar • 1 baño • 59m²
-3 camas (2 individuales, 1 sofá cama)</t>
-  </si>
-  <si>
-    <t>HOMEABOUT SAN BERNARDO Apartment II</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/san-bernardo-apartment-ii-1br-1bt.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=23&amp;hapos=73&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=40fe6012aed600bf&amp;srepoch=1645364389&amp;all_sr_blocks=764586401_333881841_4_0_0&amp;highlighted_blocks=764586401_333881841_4_0_0&amp;matching_block_id=764586401_333881841_4_0_0&amp;sr_pri_blocks=764586401_333881841_4_0_0__12390&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t>€ 124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartamento de 1 dormitorio
-Apartamento entero • 1 dormitorio • 1 sala de estar • 1 baño • 60m²
-2 camas (1 doble, 1 sofá cama)</t>
-  </si>
-  <si>
-    <t>Boutique Apartments in the Heart of Madrid</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/boutique-apartments-in-the-heart-of-madrid.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=24&amp;hapos=74&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=40fe6012aed600bf&amp;srepoch=1645364389&amp;all_sr_blocks=643801005_265161721_2_0_0&amp;highlighted_blocks=643801005_265161721_2_0_0&amp;matching_block_id=643801005_265161721_2_0_0&amp;sr_pri_blocks=643801005_265161721_2_0_0__10575&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t>€ 120€ 106</t>
-  </si>
-  <si>
-    <t>7,9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartamento con balcón
-Apartamento entero • 2 dormitorios • 1 sala de estar • 1 baño • 55m²
-3 camas (1 doble, 1 litera, 1 sofá cama)
-Solo quedan 3 a este precio en nuestra web</t>
-  </si>
-  <si>
-    <t>CHUECA Apartamentos</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/chueca-bonito-estudio-para-3-wifi.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=25&amp;hapos=75&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=40fe6012aed600bf&amp;srepoch=1645364389&amp;all_sr_blocks=455026611_147421992_3_0_0&amp;highlighted_blocks=455026611_147421992_3_0_0&amp;matching_block_id=455026611_147421992_3_0_0&amp;sr_pri_blocks=455026611_147421992_3_0_0__10400&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartamento Dúplex
-Apartamento entero • 1 dormitorio • 1 sala de estar • 1 baño • 27m²
-2 camas (1 doble, 1 sofá cama)
-Solo queda 1 a este precio en nuestra web</t>
+    <t>Apartment SAN MIGUEL</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/e-rmad-homes-san-miguel.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=25&amp;hapos=150&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=641993001_260297277_4_0_0&amp;highlighted_blocks=641993001_260297277_4_0_0&amp;matching_block_id=641993001_260297277_4_0_0&amp;sr_pri_blocks=641993001_260297277_4_0_0__12500&amp;from=searchresults#hotelTmpl</t>
   </si>
 </sst>
 </file>
@@ -859,641 +823,623 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
       <c r="F2">
         <v>150</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
       <c r="F3">
         <v>150</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
       <c r="F4">
         <v>150</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
       <c r="F5">
         <v>150</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
       <c r="F6">
         <v>150</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
         <v>34</v>
       </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
       <c r="F7">
         <v>150</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
       <c r="F8">
         <v>150</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="F9">
         <v>150</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F10">
         <v>150</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F11">
         <v>150</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F12">
         <v>150</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F13">
         <v>150</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F14">
         <v>150</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F15">
         <v>150</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F16">
         <v>150</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F17">
         <v>150</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F18">
         <v>150</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F19">
         <v>150</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F20">
         <v>150</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F21">
         <v>150</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="F22">
         <v>150</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
-      </c>
-      <c r="D23" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="E23" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F23">
         <v>150</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>103</v>
+      </c>
+      <c r="D24" t="s">
+        <v>104</v>
       </c>
       <c r="E24" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F24">
         <v>150</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E25" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F25">
         <v>150</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="E26" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="F26">
         <v>150</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/lista-de-booking.xlsx
+++ b/src/data/lista-de-booking.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="102">
   <si>
     <t>Nombre</t>
   </si>
@@ -37,13 +37,109 @@
     <t>CheckOut</t>
   </si>
   <si>
-    <t>Piso Bonito</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/piso-bonito-madrid.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=126&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=791125001_338902575_1_0_0&amp;highlighted_blocks=791125001_338902575_1_0_0&amp;matching_block_id=791125001_338902575_1_0_0&amp;sr_pri_blocks=791125001_338902575_1_0_0__11970&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -  120</t>
+    <t>Apartamentos El Tiempo</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/apartamentos-el-tiempo-madrid.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-23&amp;checkout=2022-02-24&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=26&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D2&amp;srpvid=7c9c4b4b20a000eb&amp;srepoch=1645612952&amp;all_sr_blocks=70419409_88210508_2_2_0&amp;highlighted_blocks=70419409_88210508_2_2_0&amp;matching_block_id=70419409_88210508_2_2_0&amp;sr_pri_blocks=70419409_88210508_2_2_0__9000&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  150 -  90</t>
+  </si>
+  <si>
+    <t>8,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento Superior (2 adultos)
+Apartamento entero • 1 dormitorio • 1 sala de estar • 1 baño • 40m²
+2 camas individuales
+Solo queda 1 a este precio en nuestra web</t>
+  </si>
+  <si>
+    <t>23/2/2022</t>
+  </si>
+  <si>
+    <t>24/2/2022</t>
+  </si>
+  <si>
+    <t>Apartamento céntrico a 10 minutos de Opera II</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/apartamento-centrico-a-10-minutos-de-la-latina.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-23&amp;checkout=2022-02-24&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=27&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D2&amp;srpvid=7c9c4b4b20a000eb&amp;srepoch=1645612952&amp;all_sr_blocks=560433001_269030103_2_0_0&amp;highlighted_blocks=560433001_269030103_2_0_0&amp;matching_block_id=560433001_269030103_2_0_0&amp;sr_pri_blocks=560433001_269030103_2_0_0__6072&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  66 -  61</t>
+  </si>
+  <si>
+    <t>7,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento de 2 dormitorios
+Apartamento entero • 2 dormitorios • 1 sala de estar • 10m²
+3 camas (2 dobles, 1 sofá cama)
+Cancelación gratis
+Puedes cancelar más tarde. Aprovecha y consigue un buen precio hoy.
+Solo queda 1 a este precio en nuestra web</t>
+  </si>
+  <si>
+    <t>Apartamento Ballesta</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/apartamento-grupos-gran-via-calle-de-la-ballesta-plaza-luna.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-23&amp;checkout=2022-02-24&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=28&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D2&amp;srpvid=7c9c4b4b20a000eb&amp;srepoch=1645612952&amp;all_sr_blocks=378544502_276038485_3_0_0&amp;highlighted_blocks=378544502_276038485_3_0_0&amp;matching_block_id=378544502_276038485_3_0_0&amp;sr_pri_blocks=378544502_276038485_3_0_0__9200&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  92</t>
+  </si>
+  <si>
+    <t>5,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento de 2 dormitorios
+Apartamento entero • 2 dormitorios • 1 sala de estar • 2 baños • 55m²
+3 camas (2 individuales, 1 doble)
+Solo queda 1 a este precio en nuestra web</t>
+  </si>
+  <si>
+    <t>Madrid Sol Gran Vía</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/madrid-sol-gran-via.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-23&amp;checkout=2022-02-24&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=29&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D2&amp;srpvid=7c9c4b4b20a000eb&amp;srepoch=1645612952&amp;all_sr_blocks=801620401_341399514_2_0_0&amp;highlighted_blocks=801620401_341399514_2_0_0&amp;matching_block_id=801620401_341399514_2_0_0&amp;sr_pri_blocks=801620401_341399514_2_0_0__5713&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  62 -  57</t>
+  </si>
+  <si>
+    <t>8,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudio
+Estudio entero • 1 baño • 30m²
+2 camas (1 doble, 1 sofá cama)</t>
+  </si>
+  <si>
+    <t>HomeStay Barrionuevo</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/homestay-barrionuevo.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-23&amp;checkout=2022-02-24&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=30&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D2&amp;srpvid=7c9c4b4b20a000eb&amp;srepoch=1645612952&amp;all_sr_blocks=770615901_334904195_1_0_0&amp;highlighted_blocks=770615901_334904195_1_0_0&amp;matching_block_id=770615901_334904195_1_0_0&amp;sr_pri_blocks=770615901_334904195_1_0_0__8842&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  92 -  88</t>
+  </si>
+  <si>
+    <t>6,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento de 1 dormitorio
+Apartamento entero • 1 dormitorio • 1 sala de estar • 1 baño • 30m²
+2 camas (1 doble, 1 sofá cama)</t>
+  </si>
+  <si>
+    <t>Piso felicia</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/piso-felicia-madrid.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-23&amp;checkout=2022-02-24&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=31&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D2&amp;srpvid=7c9c4b4b20a000eb&amp;srepoch=1645612952&amp;all_sr_blocks=801677501_342261852_3_0_0&amp;highlighted_blocks=801677501_342261852_3_0_0&amp;matching_block_id=801677501_342261852_3_0_0&amp;sr_pri_blocks=801677501_342261852_3_0_0__9200&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  100 -  92</t>
   </si>
   <si>
     <t xml:space="preserve">Apartamento de 3 dormitorios
@@ -51,33 +147,137 @@
 4 camas (3 dobles, 1 sofá cama)</t>
   </si>
   <si>
-    <t>21/2/2022</t>
-  </si>
-  <si>
-    <t>22/2/2022</t>
-  </si>
-  <si>
-    <t>Apartamento,Chamberí,Quevedo, 5</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/apartamento-chamberi-quevedo-e.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=127&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=761679901_333347382_4_0_0&amp;highlighted_blocks=761679901_333347382_4_0_0&amp;matching_block_id=761679901_333347382_4_0_0&amp;sr_pri_blocks=761679901_333347382_4_0_0__10500&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -  105</t>
-  </si>
-  <si>
-    <t>7,2</t>
+    <t>El Jardin de Manresa</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/el-jardin-de-manresa.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-23&amp;checkout=2022-02-24&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=32&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D2&amp;srpvid=7c9c4b4b20a000eb&amp;srepoch=1645612952&amp;all_sr_blocks=610120101_238890161_3_0_0&amp;highlighted_blocks=610120101_238890161_3_0_0&amp;matching_block_id=610120101_238890161_3_0_0&amp;sr_pri_blocks=610120101_238890161_3_0_0__5980&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  65 -  60</t>
+  </si>
+  <si>
+    <t>7,6</t>
   </si>
   <si>
     <t xml:space="preserve">Apartamento de 1 dormitorio
-Apartamento entero • 1 dormitorio • 1 sala de estar • 1 baño • 34m²
+Apartamento entero • 1 dormitorio • 1 sala de estar • 1 baño • 45m²
 2 camas (1 doble, 1 sofá cama)</t>
   </si>
   <si>
+    <t>Aluche Aparment A</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/aluche-aparment-a.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-23&amp;checkout=2022-02-24&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=33&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D2&amp;srpvid=7c9c4b4b20a000eb&amp;srepoch=1645612952&amp;all_sr_blocks=669667201_273790719_2_0_0&amp;highlighted_blocks=669667201_273790719_2_0_0&amp;matching_block_id=669667201_273790719_2_0_0&amp;sr_pri_blocks=669667201_273790719_2_0_0__6992&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  95 -  70</t>
+  </si>
+  <si>
+    <t>7,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento de 1 dormitorio
+Apartamento entero • 1 dormitorio • 1 sala de estar • 1 baño • 50m²
+2 camas (1 doble, 1 sofá cama)</t>
+  </si>
+  <si>
+    <t>Dormitorio con Despacho Suites Torr Av América-Prosperidad</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/amplio-despacho-dormitorio-exterior-2-habitaciones-zona-av-de-america-47-clara-d.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-23&amp;checkout=2022-02-24&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=34&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D2&amp;srpvid=7c9c4b4b20a000eb&amp;srepoch=1645612952&amp;all_sr_blocks=779918701_343610186_3_0_0&amp;highlighted_blocks=779918701_343610186_3_0_0&amp;matching_block_id=779918701_343610186_3_0_0&amp;sr_pri_blocks=779918701_343610186_3_0_0__9568&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  104 -  96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento de 2 dormitorios
+Apartamento entero • 2 dormitorios • 1 baño • 60m²
+3 camas (2 individuales, 1 doble)</t>
+  </si>
+  <si>
+    <t>Apartament Cba7</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/apartament-cba7-madrid.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-23&amp;checkout=2022-02-24&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=10&amp;hapos=35&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D2&amp;srpvid=7c9c4b4b20a000eb&amp;srepoch=1645612952&amp;all_sr_blocks=760618701_333239820_1_0_0&amp;highlighted_blocks=760618701_333239820_1_0_0&amp;matching_block_id=760618701_333239820_1_0_0&amp;sr_pri_blocks=760618701_333239820_1_0_0__10000&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  100</t>
+  </si>
+  <si>
+    <t>Madrid Central Suite</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/madrid-central-suite.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-23&amp;checkout=2022-02-24&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=11&amp;hapos=36&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D2&amp;srpvid=7c9c4b4b20a000eb&amp;srepoch=1645612952&amp;all_sr_blocks=760636101_333240846_2_0_0&amp;highlighted_blocks=760636101_333240846_2_0_0&amp;matching_block_id=760636101_333240846_2_0_0&amp;sr_pri_blocks=760636101_333240846_2_0_0__10000&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t>Pisos con piscina planta 20 y 13 super vistas</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/nuevo-piso-planta-20-super-vistas.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-23&amp;checkout=2022-02-24&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=12&amp;hapos=37&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D2&amp;srpvid=7c9c4b4b20a000eb&amp;srepoch=1645612952&amp;all_sr_blocks=434050902_130203530_3_0_0&amp;highlighted_blocks=434050902_130203530_3_0_0&amp;matching_block_id=434050902_130203530_3_0_0&amp;sr_pri_blocks=434050902_130203530_3_0_0__9987&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  106 -  100</t>
+  </si>
+  <si>
+    <t>7,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento de 2 dormitorios
+Apartamento entero • 2 dormitorios • 1 sala de estar • 1 baño • 75m²
+4 camas (1 doble, 2 sofás cama, 1 doble grande)
+Solo queda 1 a este precio en nuestra web</t>
+  </si>
+  <si>
+    <t>LOFT STAR THE PALMER HOUSE</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/loft-star-the-palmer-house.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-23&amp;checkout=2022-02-24&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=13&amp;hapos=38&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D2&amp;srpvid=7c9c4b4b20a000eb&amp;srepoch=1645612952&amp;all_sr_blocks=501483701_343482314_0_0_0&amp;highlighted_blocks=501483701_343482314_0_0_0&amp;matching_block_id=501483701_343482314_0_0_0&amp;sr_pri_blocks=501483701_343482314_0_0_0__9913&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  107 -  99</t>
+  </si>
+  <si>
+    <t>5,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loft
+Apartamento entero • 1 dormitorio • 1 sala de estar • 1 baño • 23m²
+4 camas (1 individual, 1 sofá cama, 2 dobles grandes)
+Solo queda 1 a este precio en nuestra web</t>
+  </si>
+  <si>
+    <t>Sol Vallecas Apartment</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/sol-vallecas-apartment.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-23&amp;checkout=2022-02-24&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=14&amp;hapos=39&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D2&amp;srpvid=7c9c4b4b20a000eb&amp;srepoch=1645612952&amp;all_sr_blocks=822746801_346543087_6_0_0&amp;highlighted_blocks=822746801_346543087_6_0_0&amp;matching_block_id=822746801_346543087_6_0_0&amp;sr_pri_blocks=822746801_346543087_6_0_0__8220&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  85 -  82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento de 3 dormitorios
+Apartamento entero • 3 dormitorios • 1 sala de estar • 1 baño • 60m²
+4 camas (1 individual, 2 dobles, 1 sofá cama)</t>
+  </si>
+  <si>
+    <t>Apartamento Malasaña</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/apartamento-fuencarral-madrid12345.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-23&amp;checkout=2022-02-24&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=15&amp;hapos=40&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D2&amp;srpvid=7c9c4b4b20a000eb&amp;srepoch=1645612952&amp;all_sr_blocks=821134301_344837828_4_0_0&amp;highlighted_blocks=821134301_344837828_4_0_0&amp;matching_block_id=821134301_344837828_4_0_0&amp;sr_pri_blocks=821134301_344837828_4_0_0__9993&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  105 -  100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento de 1 dormitorio
+Apartamento entero • 1 dormitorio • 1 sala de estar • 1 baño
+2 camas (1 doble, 1 sofá cama)</t>
+  </si>
+  <si>
     <t>Horoko Apartments by gaiarooms</t>
   </si>
   <si>
-    <t>https://www.booking.com/hotel/es/miosotis13-madrid.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=128&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=404743703_344219680_4_0_0&amp;highlighted_blocks=404743703_344219680_4_0_0&amp;matching_block_id=404743703_344219680_4_0_0&amp;sr_pri_blocks=404743703_344219680_4_0_0__10500&amp;from=searchresults#hotelTmpl</t>
+    <t>https://www.booking.com/hotel/es/miosotis13-madrid.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-23&amp;checkout=2022-02-24&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=16&amp;hapos=41&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D2&amp;srpvid=7c9c4b4b20a000eb&amp;srepoch=1645612952&amp;all_sr_blocks=404743703_344219680_2_0_0&amp;highlighted_blocks=404743703_344219680_2_0_0&amp;matching_block_id=404743703_344219680_2_0_0&amp;sr_pri_blocks=404743703_344219680_2_0_0__10000&amp;from=searchresults#hotelTmpl</t>
   </si>
   <si>
     <t>8,6</t>
@@ -91,108 +291,22 @@
 Solo queda 1 a este precio en nuestra web</t>
   </si>
   <si>
-    <t>Aluche Aparment C</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/aluche-aparment-c.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=129&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=669676001_343471556_2_0_0&amp;highlighted_blocks=669676001_343471556_2_0_0&amp;matching_block_id=669676001_343471556_2_0_0&amp;sr_pri_blocks=669676001_343471556_2_0_0__10450&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -  104</t>
-  </si>
-  <si>
-    <t>7,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartamento de 1 dormitorio
-Apartamento entero • 1 dormitorio • 1 sala de estar • 1 baño • 50m²
-2 camas (1 doble, 1 sofá cama)</t>
-  </si>
-  <si>
-    <t>Centro / Ferrocarril 3</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/centro-47-ferrocarril-3.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=130&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=654489601_343471591_3_0_0&amp;highlighted_blocks=654489601_343471591_3_0_0&amp;matching_block_id=654489601_343471591_3_0_0&amp;sr_pri_blocks=654489601_343471591_3_0_0__10450&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t>5,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartamento de 1 dormitorio
-Apartamento entero • 1 dormitorio • 1 sala de estar • 1 baño • 35m²
-2 camas (1 doble, 1 sofá cama)</t>
-  </si>
-  <si>
-    <t>Cosy Apartment close to Atocha station Madrid</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/cosy-apartment-close-to-atocha-station-madrid.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=131&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=811514502_343404377_6_0_0&amp;highlighted_blocks=811514502_343404377_6_0_0&amp;matching_block_id=811514502_343404377_6_0_0&amp;sr_pri_blocks=811514502_343404377_6_0_0__12000&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartamento
-Apartamento entero • 3 dormitorios • 1 sala de estar • 2 baños • 90m²
-3 camas dobles</t>
-  </si>
-  <si>
-    <t>HOMEABOUT ATOCHA APARTMENT (1BR 1BT)</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/homeabout-atocha-apartment-1br-1bt-madrid.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=132&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=811260301_343362099_1_0_0&amp;highlighted_blocks=811260301_343362099_1_0_0&amp;matching_block_id=811260301_343362099_1_0_0&amp;sr_pri_blocks=811260301_343362099_1_0_0__10784&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -  108</t>
-  </si>
-  <si>
-    <t>Centroapartament Las Letras</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/centroapartament-echegaray.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=133&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=159341901_91958362_2_0_0&amp;highlighted_blocks=159341901_91958362_2_0_0&amp;matching_block_id=159341901_91958362_2_0_0&amp;sr_pri_blocks=159341901_91958362_2_0_0__12050&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -  121</t>
-  </si>
-  <si>
-    <t>9,2</t>
-  </si>
-  <si>
-    <t>Jaime el Conquistador Apartment</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/jaime-el-conquistador-apartment.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=134&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=194484101_343471573_4_0_0&amp;highlighted_blocks=194484101_343471573_4_0_0&amp;matching_block_id=194484101_343471573_4_0_0&amp;sr_pri_blocks=194484101_343471573_4_0_0__10670&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -  107</t>
-  </si>
-  <si>
-    <t>6,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartamento
-Apartamento entero • 2 dormitorios • 1 sala de estar • 60m²
-3 camas (2 dobles, 1 sofá cama)
-Solo queda 1 a este precio en nuestra web</t>
-  </si>
-  <si>
-    <t>My City Home Estudio Noviciado IV</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/my-city-home-estudio-noviciado-iv.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=10&amp;hapos=135&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=822086701_344962055_2_0_0&amp;highlighted_blocks=822086701_344962055_2_0_0&amp;matching_block_id=822086701_344962055_2_0_0&amp;sr_pri_blocks=822086701_344962055_2_0_0__11693&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -  123 -  117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartamento de 1 dormitorio
-Apartamento entero • 1 dormitorio • 1 baño • 42m²
-1 cama doble</t>
+    <t>Piso Bonito</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/piso-bonito-madrid.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-23&amp;checkout=2022-02-24&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=17&amp;hapos=42&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D2&amp;srpvid=7c9c4b4b20a000eb&amp;srepoch=1645612952&amp;all_sr_blocks=791125001_344506986_2_0_0&amp;highlighted_blocks=791125001_344506986_2_0_0&amp;matching_block_id=791125001_344506986_2_0_0&amp;sr_pri_blocks=791125001_344506986_2_0_0__8280&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  90 -  83</t>
   </si>
   <si>
     <t>Centro Madrid Rio - Monederos B</t>
   </si>
   <si>
-    <t>https://www.booking.com/hotel/es/madrid-rio-monederos-b.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=11&amp;hapos=136&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=451980701_343471583_4_0_0&amp;highlighted_blocks=451980701_343471583_4_0_0&amp;matching_block_id=451980701_343471583_4_0_0&amp;sr_pri_blocks=451980701_343471583_4_0_0__10120&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -  101</t>
+    <t>https://www.booking.com/hotel/es/madrid-rio-monederos-b.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-23&amp;checkout=2022-02-24&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=18&amp;hapos=43&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D2&amp;srpvid=7c9c4b4b20a000eb&amp;srepoch=1645612952&amp;all_sr_blocks=451980701_338690482_2_0_0&amp;highlighted_blocks=451980701_338690482_2_0_0&amp;matching_block_id=451980701_338690482_2_0_0&amp;sr_pri_blocks=451980701_338690482_2_0_0__5299&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  72 -  53</t>
   </si>
   <si>
     <t>6,4</t>
@@ -204,210 +318,53 @@
 Solo queda 1 a este precio en nuestra web</t>
   </si>
   <si>
-    <t>PYR Select Puerta de Toledo</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/pyr-select-puerta-de-toledo.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=12&amp;hapos=137&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=535999201_238876858_2_0_0&amp;highlighted_blocks=535999201_238876858_2_0_0&amp;matching_block_id=535999201_238876858_2_0_0&amp;sr_pri_blocks=535999201_238876858_2_0_0__14775&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -  148</t>
-  </si>
-  <si>
-    <t>7,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartamento de 1 dormitorio
-Apartamento entero • 1 dormitorio • 1 sala de estar • 1 baño • 65m²
-2 camas (1 doble, 1 sofá cama)
-Solo queda 1 a este precio en nuestra web</t>
+    <t>I love madrid centro plaza mayor</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/feliz-apartamento.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-23&amp;checkout=2022-02-24&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=19&amp;hapos=44&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D2&amp;srpvid=7c9c4b4b20a000eb&amp;srepoch=1645612952&amp;all_sr_blocks=272821201_106324788_0_0_0&amp;highlighted_blocks=272821201_106324788_0_0_0&amp;matching_block_id=272821201_106324788_0_0_0&amp;sr_pri_blocks=272821201_106324788_0_0_0__5628&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  61 -  56</t>
+  </si>
+  <si>
+    <t>6,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento Estudio
+Apartamento entero • 1 dormitorio • 1 baño • 23m²
+1 cama doble</t>
   </si>
   <si>
     <t>MONCLOA-UNI. COMPLUTENSE APARTAMENTOS</t>
   </si>
   <si>
-    <t>https://www.booking.com/hotel/es/moncloa-uni-complutense-apartamentos.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=13&amp;hapos=138&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=811254401_343359582_4_0_0&amp;highlighted_blocks=811254401_343359582_4_0_0&amp;matching_block_id=811254401_343359582_4_0_0&amp;sr_pri_blocks=811254401_343359582_4_0_0__10080&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t>7,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartamento de 1 dormitorio
+    <t>https://www.booking.com/hotel/es/moncloa-uni-complutense-apartamentos.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-23&amp;checkout=2022-02-24&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=20&amp;hapos=45&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D2&amp;srpvid=7c9c4b4b20a000eb&amp;srepoch=1645612952&amp;all_sr_blocks=811254402_344561232_3_0_0&amp;highlighted_blocks=811254402_344561232_3_0_0&amp;matching_block_id=811254402_344561232_3_0_0&amp;sr_pri_blocks=811254402_344561232_3_0_0__9600&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  102 -  96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento
 Apartamento entero • 1 dormitorio • 1 sala de estar • 1 baño • 25m²
 2 camas (1 doble, 1 sofá cama)
 Solo queda 1 a este precio en nuestra web</t>
   </si>
   <si>
-    <t>La Gata Madrid</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/la-gata-madrid.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=14&amp;hapos=139&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=240719601_236047736_4_0_0&amp;highlighted_blocks=240719601_236047736_4_0_0&amp;matching_block_id=240719601_236047736_4_0_0&amp;sr_pri_blocks=240719601_236047736_4_0_0__13700&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -  137</t>
-  </si>
-  <si>
-    <t>8,2</t>
+    <t>M-A Star Apartamento - Cl Carnicer</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/es/apartamento-m-a-star-calle-carnicer.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-23&amp;checkout=2022-02-24&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=21&amp;hapos=46&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D2&amp;srpvid=7c9c4b4b20a000eb&amp;srepoch=1645612952&amp;all_sr_blocks=662670601_285294555_4_0_0&amp;highlighted_blocks=662670601_285294555_4_0_0&amp;matching_block_id=662670601_285294555_4_0_0&amp;sr_pri_blocks=662670601_285294555_4_0_0__7974&amp;from=searchresults#hotelTmpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  95 -  80</t>
+  </si>
+  <si>
+    <t>8,1</t>
   </si>
   <si>
     <t xml:space="preserve">Apartamento de 2 dormitorios
-Apartamento entero • 2 dormitorios • 1 sala de estar • 2 baños • 70m²
-4 camas (2 individuales, 1 doble, 1 sofá cama)
-Solo queda 1 a este precio en nuestra web</t>
-  </si>
-  <si>
-    <t>Apartamento Centrico Madrid</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/apartamento-lujo-madrid-centro.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=15&amp;hapos=140&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=694284801_294303422_4_0_0&amp;highlighted_blocks=694284801_294303422_4_0_0&amp;matching_block_id=694284801_294303422_4_0_0&amp;sr_pri_blocks=694284801_294303422_4_0_0__12800&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -  128</t>
-  </si>
-  <si>
-    <t>7,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartamento de 2 dormitorios
-Apartamento entero • 2 dormitorios • 1 sala de estar • 1 baño • 15m²
-3 camas (2 dobles, 1 sofá cama)
-Cancelación gratis
-Puedes cancelar más tarde. Aprovecha y consigue un buen precio hoy.</t>
-  </si>
-  <si>
-    <t>Centro Usera / Mirasierra 1</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/centro-usera-mirasierra-1.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=16&amp;hapos=141&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=788786201_343471564_4_0_0&amp;highlighted_blocks=788786201_343471564_4_0_0&amp;matching_block_id=788786201_343471564_4_0_0&amp;sr_pri_blocks=788786201_343471564_4_0_0__10670&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartamento de 1 dormitorio
-Apartamento entero • 1 dormitorio • 1 sala de estar • 1 baño • 30m²
-2 camas (1 doble, 1 sofá cama)</t>
-  </si>
-  <si>
-    <t>Apartment PALOMA</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/e-amp-rmad-homes-paloma.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=17&amp;hapos=142&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=590751501_231837071_3_0_0&amp;highlighted_blocks=590751501_231837071_3_0_0&amp;matching_block_id=590751501_231837071_3_0_0&amp;sr_pri_blocks=590751501_231837071_3_0_0__12000&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartamento de 1 dormitorio
-Apartamento entero • 1 dormitorio • 1 sala de estar • 1 baño • 28m²
-2 camas (1 doble, 1 sofá cama)</t>
-  </si>
-  <si>
-    <t>HOMELY LOFT PLAZA MAYOR</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/homely-loft-plaza-mayor.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=18&amp;hapos=143&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=705975101_295422263_4_0_0&amp;highlighted_blocks=705975101_295422263_4_0_0&amp;matching_block_id=705975101_295422263_4_0_0&amp;sr_pri_blocks=705975101_295422263_4_0_0__14375&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -  144</t>
-  </si>
-  <si>
-    <t>9,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartamento de 1 dormitorio
-Apartamento entero • 1 dormitorio • 1 baño • 30m²
-3 camas (2 individuales, 1 sofá cama)</t>
-  </si>
-  <si>
-    <t>21 Gumers</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/21wifi-a-47-c-parking-gratis.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=19&amp;hapos=144&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=423121001_329624066_1_0_0&amp;highlighted_blocks=423121001_329624066_1_0_0&amp;matching_block_id=423121001_329624066_1_0_0&amp;sr_pri_blocks=423121001_329624066_1_0_0__13450&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -  135</t>
-  </si>
-  <si>
-    <t>9,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartamento - Planta baja
-Apartamento entero • 2 dormitorios • 1 sala de estar • 1 baño • 65m²
-3 camas (1 doble, 1 sofá cama, 1 doble grande)
-Solo queda 1 a este precio en nuestra web</t>
-  </si>
-  <si>
-    <t>Lucero Madrid</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/lucero-madrid.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=20&amp;hapos=145&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=213407901_236047550_4_0_0&amp;highlighted_blocks=213407901_236047550_4_0_0&amp;matching_block_id=213407901_236047550_4_0_0&amp;sr_pri_blocks=213407901_236047550_4_0_0__13700&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t>7,9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartamento de 3 dormitorios
-Apartamento entero • 3 dormitorios • 1 sala de estar • 1 baño • 75m²
-5 camas (3 individuales, 1 doble, 1 sofá cama)
-Solo queda 1 a este precio en nuestra web</t>
-  </si>
-  <si>
-    <t>Stylish Apartments junto a Plaza de España y Gran Vía.</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/stylish-apartments-junto-a-plaza-de-espana-y-gran-via.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=21&amp;hapos=146&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=805962301_342035889_1_0_0&amp;highlighted_blocks=805962301_342035889_1_0_0&amp;matching_block_id=805962301_342035889_1_0_0&amp;sr_pri_blocks=805962301_342035889_1_0_0__10800&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartamento de 1 dormitorio
-Apartamento entero • 1 dormitorio • 1 baño • 40m²
-1 cama doble</t>
-  </si>
-  <si>
-    <t>MPV-45</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/mpv-45.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=22&amp;hapos=147&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=801247601_341344129_3_0_0&amp;highlighted_blocks=801247601_341344129_3_0_0&amp;matching_block_id=801247601_341344129_3_0_0&amp;sr_pri_blocks=801247601_341344129_3_0_0__10800&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartamento de 1 dormitorio
-Apartamento entero • 1 dormitorio • 1 sala de estar • 1 baño
-2 camas (1 doble, 1 sofá cama)</t>
-  </si>
-  <si>
-    <t>Destino Deluxe Madrid Paseo de la Castellana</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/madrid-deluxe.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=23&amp;hapos=148&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=299569801_143649415_3_0_0&amp;highlighted_blocks=299569801_143649415_3_0_0&amp;matching_block_id=299569801_143649415_3_0_0&amp;sr_pri_blocks=299569801_143649415_3_0_0__12500&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -  125</t>
-  </si>
-  <si>
-    <t>8,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartamento Deluxe
-Apartamento entero • 1 dormitorio • 1 sala de estar • 44m²
-2 camas (1 sofá cama, 1 doble grande)
-Solo queda 1 a este precio en nuestra web</t>
-  </si>
-  <si>
-    <t>Alterhome Francisco de Goya</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/francisco-de-goya-madrid.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=24&amp;hapos=149&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=514740201_343266826_2_2_0&amp;highlighted_blocks=514740201_343266826_2_2_0&amp;matching_block_id=514740201_343266826_2_2_0&amp;sr_pri_blocks=514740201_343266826_2_2_0__10163&amp;from=searchresults#hotelTmpl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -  102</t>
-  </si>
-  <si>
-    <t>6,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartamento de 1 dormitorio
-Apartamento entero • 1 dormitorio • 1 sala de estar • 1 baño • 45m²
-2 camas (1 doble, 1 sofá cama)
-Solo queda 1 a este precio en nuestra web</t>
-  </si>
-  <si>
-    <t>Apartment SAN MIGUEL</t>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/es/e-rmad-homes-san-miguel.es.html?label=gen173nr-1FCAQoggI4-gNIClgEaEaIAQGYAQq4ARfIAQzYAQHoAQH4AQOIAgGoAgO4Aq_5xJAGwAIB0gIkNGM5OGIwZGYtOTljOC00OTZmLTg3YWYtZmI2ZjUzYTkwMDE12AIF4AIB&amp;sid=c164a2a21ede1af159b039e5574a0a20&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-02-21&amp;checkout=2022-02-22&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=25&amp;hapos=150&amp;sr_order=popularity&amp;nflt=privacy_type%3D3%3Bpri%3D3&amp;srpvid=b32a8284a2ac0107&amp;srepoch=1645382026&amp;all_sr_blocks=641993001_260297277_4_0_0&amp;highlighted_blocks=641993001_260297277_4_0_0&amp;matching_block_id=641993001_260297277_4_0_0&amp;sr_pri_blocks=641993001_260297277_4_0_0__12500&amp;from=searchresults#hotelTmpl</t>
+Apartamento entero • 2 dormitorios • 1 baño • 25m²
+3 camas (1 individual, 1 doble, 1 doble grande)</t>
   </si>
 </sst>
 </file>
@@ -784,7 +741,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H22"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -823,623 +780,519 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F5">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F7">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F8">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F9">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F10">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F11">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F12">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F13">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F14">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F15">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F16">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F17">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="F18">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F19">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F20">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F21">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>99</v>
+      </c>
+      <c r="D22" t="s">
+        <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F22">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23">
-        <v>150</v>
-      </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" t="s">
-        <v>105</v>
-      </c>
-      <c r="F24">
-        <v>150</v>
-      </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" t="s">
-        <v>110</v>
-      </c>
-      <c r="F25">
-        <v>150</v>
-      </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26">
-        <v>150</v>
-      </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
